--- a/sphinx/Example.xlsx
+++ b/sphinx/Example.xlsx
@@ -19,12 +19,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>feed</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>d2</t>
   </si>
   <si>
@@ -61,19 +61,19 @@
     <t>- Water</t>
   </si>
   <si>
+    <t>F1</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>gas</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>liquid</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>gas</t>
   </si>
   <si>
     <t>S1</t>
@@ -620,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -643,19 +643,19 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -669,16 +669,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -686,10 +686,10 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>110.1921000592142</v>
+      </c>
+      <c r="C6">
         <v>288.6043</v>
-      </c>
-      <c r="C6">
-        <v>110.1921000592142</v>
       </c>
       <c r="D6">
         <v>356.8261744236602</v>
@@ -737,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="B9">
+        <v>0.001107742117623857</v>
+      </c>
+      <c r="C9">
         <v>0.5318344182675032</v>
-      </c>
-      <c r="C9">
-        <v>0.001107742117623857</v>
       </c>
       <c r="D9">
         <v>0.8596215761008698</v>
@@ -760,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="B10">
+        <v>0.9988922578823761</v>
+      </c>
+      <c r="C10">
         <v>0.4681655817324967</v>
-      </c>
-      <c r="C10">
-        <v>0.9988922578823761</v>
       </c>
       <c r="D10">
         <v>0.1403784238991303</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -861,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/sphinx/Example.xlsx
+++ b/sphinx/Example.xlsx
@@ -19,12 +19,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
+    <t>feed</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>feed</t>
-  </si>
-  <si>
     <t>d2</t>
   </si>
   <si>
@@ -61,19 +61,19 @@
     <t>- Water</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>gas</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>liquid</t>
   </si>
   <si>
     <t>S1</t>
@@ -620,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -643,19 +643,19 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -669,16 +669,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>110.1921000592142</v>
+        <v>288.6043</v>
       </c>
       <c r="C6">
-        <v>288.6043</v>
+        <v>110.1921001907826</v>
       </c>
       <c r="D6">
-        <v>356.8261744236602</v>
+        <v>356.8261757644078</v>
       </c>
       <c r="E6">
-        <v>467.0182744828744</v>
+        <v>467.0182759551903</v>
       </c>
       <c r="F6">
-        <v>178.4130872118301</v>
+        <v>178.4130878822039</v>
       </c>
       <c r="G6">
-        <v>178.4130872118301</v>
+        <v>178.4130878822039</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -737,22 +737,22 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.001107742117623857</v>
+        <v>0.5318344182675032</v>
       </c>
       <c r="C9">
-        <v>0.5318344182675032</v>
+        <v>0.001107742067704062</v>
       </c>
       <c r="D9">
-        <v>0.8596215761008698</v>
+        <v>0.8596215727569412</v>
       </c>
       <c r="E9">
-        <v>0.6570568212178775</v>
+        <v>0.6570568190479069</v>
       </c>
       <c r="F9">
-        <v>0.8596215761008698</v>
+        <v>0.8596215727569412</v>
       </c>
       <c r="G9">
-        <v>0.8596215761008698</v>
+        <v>0.8596215727569412</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -760,22 +760,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.9988922578823761</v>
+        <v>0.4681655817324967</v>
       </c>
       <c r="C10">
-        <v>0.4681655817324967</v>
+        <v>0.9988922579322959</v>
       </c>
       <c r="D10">
-        <v>0.1403784238991303</v>
+        <v>0.1403784272430587</v>
       </c>
       <c r="E10">
-        <v>0.3429431787821225</v>
+        <v>0.3429431809520931</v>
       </c>
       <c r="F10">
-        <v>0.1403784238991303</v>
+        <v>0.1403784272430587</v>
       </c>
       <c r="G10">
-        <v>0.1403784238991303</v>
+        <v>0.1403784272430587</v>
       </c>
     </row>
   </sheetData>
@@ -810,19 +810,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3">
-        <v>20365415.57469253</v>
+        <v>20365415.59356136</v>
       </c>
       <c r="D3">
-        <v>523.5325340537925</v>
+        <v>523.5325345388525</v>
       </c>
       <c r="E3">
-        <v>104.7065068107585</v>
+        <v>104.7065069077705</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -861,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -875,7 +875,7 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>20365415.57469253</v>
+        <v>20365415.59356136</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -887,7 +887,7 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>523.5325340537925</v>
+        <v>523.5325345388525</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>104.7065068107585</v>
+        <v>104.7065069077705</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -922,7 +922,7 @@
         <v>46</v>
       </c>
       <c r="D7">
-        <v>16.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -934,7 +934,7 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -946,7 +946,7 @@
         <v>47</v>
       </c>
       <c r="D9">
-        <v>6248.8</v>
+        <v>7815.76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -958,7 +958,7 @@
         <v>48</v>
       </c>
       <c r="D10">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -981,7 +981,7 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>50842.04746030855</v>
+        <v>61620.33766701337</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -993,7 +993,7 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <v>32174.90288779078</v>
+        <v>32174.90289035653</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>83016.95034809933</v>
+        <v>93795.24055736991</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1017,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>104.7065068107585</v>
+        <v>104.7065069077705</v>
       </c>
     </row>
   </sheetData>

--- a/sphinx/Example.xlsx
+++ b/sphinx/Example.xlsx
@@ -19,12 +19,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>feed</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>d2</t>
   </si>
   <si>
@@ -61,19 +61,19 @@
     <t>- Water</t>
   </si>
   <si>
+    <t>F1</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>gas</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>liquid</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>gas</t>
   </si>
   <si>
     <t>S1</t>
@@ -620,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -643,19 +643,19 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -669,16 +669,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>110.2060807100864</v>
+      </c>
+      <c r="C6">
         <v>288.6043</v>
       </c>
-      <c r="C6">
-        <v>110.1921001907826</v>
-      </c>
       <c r="D6">
-        <v>356.8261757644078</v>
+        <v>356.7906643308996</v>
       </c>
       <c r="E6">
-        <v>467.0182759551903</v>
+        <v>466.996745040986</v>
       </c>
       <c r="F6">
-        <v>178.4130878822039</v>
+        <v>178.3953321654498</v>
       </c>
       <c r="G6">
-        <v>178.4130878822039</v>
+        <v>178.3953321654498</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -737,22 +737,22 @@
         <v>12</v>
       </c>
       <c r="B9">
+        <v>0.001114525992080929</v>
+      </c>
+      <c r="C9">
         <v>0.5318344182675032</v>
       </c>
-      <c r="C9">
-        <v>0.001107742067704062</v>
-      </c>
       <c r="D9">
-        <v>0.8596215727569412</v>
+        <v>0.85970253776462</v>
       </c>
       <c r="E9">
-        <v>0.6570568190479069</v>
+        <v>0.6570852374795557</v>
       </c>
       <c r="F9">
-        <v>0.8596215727569412</v>
+        <v>0.85970253776462</v>
       </c>
       <c r="G9">
-        <v>0.8596215727569412</v>
+        <v>0.85970253776462</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -760,22 +760,22 @@
         <v>13</v>
       </c>
       <c r="B10">
+        <v>0.9988854740079192</v>
+      </c>
+      <c r="C10">
         <v>0.4681655817324967</v>
       </c>
-      <c r="C10">
-        <v>0.9988922579322959</v>
-      </c>
       <c r="D10">
-        <v>0.1403784272430587</v>
+        <v>0.1402974622353801</v>
       </c>
       <c r="E10">
-        <v>0.3429431809520931</v>
+        <v>0.3429147625204442</v>
       </c>
       <c r="F10">
-        <v>0.1403784272430587</v>
+        <v>0.1402974622353801</v>
       </c>
       <c r="G10">
-        <v>0.1403784272430587</v>
+        <v>0.1402974622353801</v>
       </c>
     </row>
   </sheetData>
@@ -810,19 +810,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3">
-        <v>20365415.59356136</v>
+        <v>20367489.50721492</v>
       </c>
       <c r="D3">
-        <v>523.5325345388525</v>
+        <v>523.5858485145222</v>
       </c>
       <c r="E3">
-        <v>104.7065069077705</v>
+        <v>104.7171697029045</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -861,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -875,7 +875,7 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>20365415.59356136</v>
+        <v>20367489.50721492</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -887,7 +887,7 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>523.5325345388525</v>
+        <v>523.5858485145222</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>104.7065069077705</v>
+        <v>104.7171697029045</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -993,7 +993,7 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <v>32174.90289035653</v>
+        <v>32176.77377852005</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>93795.24055736991</v>
+        <v>93797.11144553342</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1017,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>104.7065069077705</v>
+        <v>104.7171697029045</v>
       </c>
     </row>
   </sheetData>
